--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/14_Batman_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/14_Batman_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65BBCE27-401F-44A2-9FDB-EC4F87067742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16751F28-3D2B-4CAA-A533-630FAF981E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{E4DFB937-911F-4C8D-A1A8-DD372A031BAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{D81717B9-2699-4975-9086-41995CB38949}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -946,14 +946,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{92A4CA6E-3523-4E23-AE65-F8EE3B154007}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DB062926-B5CC-4CF2-A95C-991B4899D26C}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{708ECAB0-8C6E-470C-AD61-63EE37224540}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{51509824-D32D-4A08-ABE6-7D416BA529FA}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{CBB245BB-AFBF-495A-B489-214A4419EFCF}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{A7356288-7EF5-4057-8F1E-3BDA03810C8A}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{D5C8177C-DA8F-4333-B384-AFCA413D576A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{0223DAD1-F718-4CAE-8186-524028F001EC}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{991D097A-036C-43A0-8A14-E61536EEB82B}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{FED12A6C-2C36-4340-9B52-9A242D42916E}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{34090FE6-1741-4C69-A8F2-75DB04D7521D}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{A2BACD3E-437E-4D89-9363-FE9E6282A7E3}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{880DFF3B-3537-4FFF-80C0-F77094918B32}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{C6B9EE96-B72F-4D37-8DCB-E1C70681515A}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{F3DC5DE7-65D4-416E-9F77-3C57D79662EF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{DF7D3AE8-F669-4379-ADED-3E785BF9FBF6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1323,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AB49EF-CF2D-44F8-9717-3A0B4C534C6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEBBC5D-D980-4E62-980D-9D2A8FF6D388}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2580,18 +2580,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{50C2DD87-46C8-42BF-959C-FF141E98D03E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D7017EB5-1D7B-4F06-A666-51C470588DCB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{702FC484-0B03-490B-81B6-EFF94B14A230}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A0882C27-3F78-42CA-8821-F42972E905D4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{58FBC4F8-B3E7-4113-82BF-10223C5431B2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7CA8A3A5-E763-479A-BD24-DD086F15A251}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{A863A76E-2F80-4859-BBAE-45167B14DBF0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75F2A713-8DCD-4461-ADAE-99E83264DEC6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{741FF8B4-3FB6-4311-8EB8-A7BE98EC0C5A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{00D78C31-449B-43C8-9BF6-0A9DB79380BB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CD0225E2-9280-481D-8B2F-CD2E72887F8A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E235D03-5F2A-4233-B327-688CC12C2C3C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB00CA8A-AFC0-47AB-B11B-E627C9EC0B62}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A700AF88-96BE-4534-9A31-DC3EE39DA6BB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BEFA41AB-6E79-4D77-BC06-CC06A3CFD385}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8140F8D-E203-473E-A9F8-50C9EFA3287C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF82135D-3355-4017-B64A-1ABA944BD121}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F89C58BB-8971-4134-9232-24BC58B914D0}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{65EF0EC9-E89E-41B7-A62F-D3E87E841AC9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F0EB9DB-D38A-4893-AD46-3D7C48FAB45C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C7351EBA-EC59-4A04-9279-EEB8ECB78C52}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5F0F713F-60CB-4A84-84D4-70D4DE0D748B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7BAFBFF-9B9B-43A4-A574-BCCC6D2717EF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2A15EDC2-D440-4ADD-89D9-7D12FAF3BCDE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2604,7 +2604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71426B58-4BAD-444B-951A-A29D6EDCD74D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65854B57-3478-4EBE-83F1-73ECE3259C86}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3893,18 +3893,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97DBD8C8-24B2-475D-BFAC-ABB53E72F644}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B236FF3F-E7B0-4F06-8DE6-58C3250BBD15}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{875C2A0E-B46B-4DE3-812E-EF1467F55A51}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8957B59C-47A1-43DE-8833-11072DF2FD60}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9D13BC30-D0D6-4CDC-9BED-454E9FFE2910}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{992FD390-E62A-408C-800F-503C528F5B2F}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{3ADD3222-F82C-4005-986F-137A95E158D5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA28B9A4-D1C8-4B2E-8142-A66EDE45858C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B6D2F35-6249-4C1C-A9EF-EBDF436E4514}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{536FE42E-C633-4D2D-A859-7C7AB349336B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4EB29C03-C0F7-4D0D-886C-4431C7F7E3B8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{10F9559D-07F3-4D15-B149-209125CCCF81}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B58C28B-5752-4B53-8F47-3042BBB6DC0E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4AB549E7-1260-482D-98A9-CD32DDEC7F54}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3F63B6BE-CA93-45A4-A231-8E646C43CCAE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC2DA8CF-DE88-4074-9ECB-28888EE21B2B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ABD3F45E-301F-46BD-9491-7693309DF92E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{16590092-E2BE-49CC-B187-62B32D62C505}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{BA33F0B6-A162-4690-82E9-DC4CFF5206E7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE981456-3A71-4865-90BB-3FF59050721E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{074B08DE-B0BF-4E86-B5B1-565359557D88}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{654AD1D3-5B91-495C-857C-BCCE8EB97C8B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{76EFE996-7633-45DC-9D80-967E8EECEA49}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C91DC59E-E102-4A1B-9089-A1FA1B80F281}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3917,7 +3917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0C6CB7-E72D-444A-8DDA-737F5A93188D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D3B47-3C1A-4596-BB90-42F123632C05}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5202,18 +5202,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A81F76DA-F551-4FD9-870B-8C7ABBA158AD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21202F9A-57E8-458C-8A87-41924247FD38}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{740AFEE6-F8C8-4DA5-8C07-4D5F270261DD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{54A5849B-CF52-4E07-B057-8445120AD5BA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE49BAD0-F6F2-4C5E-B948-E11A4910B5A4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{58551FF7-E529-4862-B0F2-91CAC2833B0B}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{E67897EB-621B-4356-A8FA-5B5180A823A1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82914498-B0E0-46A1-B559-46695108CBA4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3DEF1D5-B603-4E8A-B1E4-BF1518CD319B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{87B1956E-B7D3-419D-89E7-042954FD4598}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFE4F979-ABFB-4ABA-BB5F-C4291069FB7D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C7205B99-A012-48F1-9783-1A77A3A91D74}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA14FDFF-9FB1-4D2E-BCA1-9F0A7BB6DD2C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F247A150-85C8-4170-B3E3-2608005071B6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{353E9DA6-4D1F-4DCC-BDF5-C881916AADB7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F2308A63-6123-40E8-B622-AE44546D8DE7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F1904AD3-77C0-410E-A01A-28035F6784F2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8F8AFF30-FA05-42D5-9723-ED1FCC4CE36C}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{0843B1C3-4124-49D0-902B-30B5A813577F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{162BD624-EF4C-439B-9697-4896CEDE3791}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{11D2BB6A-65C2-4A97-A6C8-FDF5A673D9BA}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0742B78C-5641-49A4-BD44-0732371A0217}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2621A05B-F970-4797-98BD-996AF8E5C23E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C806F463-812D-4B08-9F95-A3244BA7DA32}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5226,7 +5226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D0ACB-0E6D-46FF-8118-04B44D2889D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7200C629-62C8-4BEB-8616-352D88982EB8}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6501,18 +6501,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37E01752-34D8-4505-AC59-EE799D6BCACF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{81BD3330-BC9D-4C61-8D4D-0B1719210F07}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8A7D54A3-46CF-4737-9AB6-E3B5CBCAD5D3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B01A7C0-3A4C-4488-8F90-842FB1D03E2A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5931DDC2-FA1E-47F7-BE7E-BE39CB771260}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{789B2A06-3B0A-47E0-AD91-6F0F0F193B2E}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{E254648C-2C86-4F26-9F96-49CBF2825739}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA177AFD-4025-4D1B-B56B-69CFC27C1E4B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{68437852-2A73-4110-A994-58834AAC0C62}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{832D3520-1C5C-4C0F-A910-30E6CD5047DF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{498C5547-67D3-4D19-BEF0-F64311D9CF5D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3332EA78-1C75-4889-BA34-7A95C15980CB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F54D12CF-8D88-4C15-9966-4354B0183875}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F4493DD-9A97-40A3-AE85-7C9156C1657E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{925D625A-8FB2-4E28-8651-52335E04EB90}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{73A6CB88-D5D8-4D9D-8111-76D2DD084358}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{175F39A4-DAFC-49A7-8DFA-80A058CB8FD4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D1AE076C-F81D-4B3C-8989-F4259B2536E9}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{B335733E-7D70-47D9-91CD-F073ECEEA6B1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AC5E238A-627A-4A20-9080-C785B22517D1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{36CAA2FA-A9D3-4480-BB7C-F2EF1EA461FE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A447356B-AB10-4869-BA5E-1689C4D2DE13}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9F93175-BA75-41C3-B527-8AB9803EE596}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE053151-0BEE-4D24-8B21-8FE732CDA3E8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6525,7 +6525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7F0D36-D380-49AF-926A-1111FD94C0BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C8F12E-9416-40A1-9C40-8DE82ADFD327}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7784,18 +7784,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0BCD7A60-7AB1-479E-A61C-21E2853479FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0AC97B90-F3D4-4711-9EEE-1EDEBE9E8F03}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{862A2374-A915-4B31-939F-193C5471B8F2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CDED88DB-DBF2-481A-A98F-A5F63C020A13}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EA02D345-927D-4C9A-902E-81D6F23C648E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{927E1E10-A285-4783-B365-C7831F25E728}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{8D7E7F99-F2E0-468C-B85D-89730103CADB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04ABBFDD-302B-4601-ADE1-781C791FBF96}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C0DAE125-2091-4F5D-9EA1-DD8551D2C482}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B69F8226-244E-4400-AD04-4C07BFC10D9C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5BAEE49A-B649-4A39-8D98-237993297642}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A6FA14F9-A9F4-4383-9EF2-92CC128CAF86}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75420D70-14E3-4474-B0E1-43E30125F6CB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{362B2C4A-0A94-4FFF-8E81-B415F247AC76}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3FEC2D11-C706-4250-81BB-741497DF1AAE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1ED4425F-56F8-44E7-A2E2-C019755B6792}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC0856DE-C972-4FA5-9707-9B82B8DC7976}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{63A1766E-8612-4224-9DB6-B8C33EC2C8AB}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{186CF19D-CD74-4B75-A472-C54E55DB2303}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93AFE4E0-2A94-4EA5-8D7B-E3DF94B2C5FB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D39FE25-A01C-4BB3-A81A-C2267002009D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CFE00AFE-4524-4A89-B125-C72C54D4863D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A78D9EEC-058E-435E-9493-DE0B52ECC323}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A499A64E-71BF-4DF0-A7C4-D8DCCD878E56}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7808,7 +7808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A2716C-011E-436E-9384-904760D13642}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA7B7EB-8DA6-48B8-B932-1C8166CC0ADE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9067,18 +9067,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E430A4B-ADCC-441E-A382-24F298F466AC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0FC6F550-D419-4DFB-B4BC-2E71FEDD8304}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5FD41A2D-0E62-491C-A85D-0030C9C858FF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BA4EA525-2FB5-408E-8113-17F712A104A5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7BD6432A-0763-43D7-A0BB-C07726F1B93B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{83B4E4B8-1246-42E2-8436-6B60B72F2A0C}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{F33E9F97-CA65-4CFE-BE97-74C4212C5216}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44E4797F-A893-4458-9097-564DE22A7844}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84988AD2-84AC-4FAA-8A0F-6E04E4A5C800}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{62EF5271-A43E-4199-A903-39D3E401BC14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4F79A698-A425-4727-9BEC-253693EF1997}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{26BC074C-98DF-49C7-BED6-BB775C98F69F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{463696E1-4445-4650-A0CA-5FB8267745E7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD6DCF5B-4D63-493E-BEE5-ADB1E30F4093}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C24EC6BB-2A7B-4ADF-B3ED-0D94C66A240B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{38279607-D83D-451E-8C63-36380B069561}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8C6945C-1222-4D6C-9E60-20ED9DDAD639}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{70DE54C6-6F66-49F8-965A-5669FEDBB61C}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{F7A30BD9-A3A6-4107-8552-20DF4B18125C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41B35C9F-4F7E-424B-9B40-A19B85B083C9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC946B39-2E8E-4514-AEA1-39FEE3CAD61F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{443B14F5-6E95-47F8-A932-34684CAEA29D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{654638AD-AC78-4E1B-A1B7-1CF1295D3C7B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{896DFCB4-E23B-4CB7-9EFB-756B96DEEE48}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9091,7 +9091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D729CCF-FB9F-45A0-BAB7-1E0A717D2A39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65B3FE1-E02A-422E-A714-F59381762A9A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10350,18 +10350,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6FD1CF7F-EDAF-46A9-AEFE-8D0DD1B2FA25}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D26A353-490E-4F4E-BBC5-3385C234A2C1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E711E11F-708E-4952-9A98-F743D2CC6685}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E11E1E50-D33D-4DAC-BBCC-6F672BF3E7A6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{46B7C727-49FD-4936-A84F-69AAEAD115E8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{68E340F1-7FA9-4A5D-BB85-6DD752D344F3}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{73186DF9-9265-4187-9A01-6F004574A445}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70A69F18-53D2-429F-BAE9-20EFF3690902}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{33CE1B93-6288-4377-BAC6-B76EE5085251}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0A0B1F2D-56C2-4FE0-B4CB-BE8227DAE630}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{91B3A447-4CD3-49DE-BB08-498531529D80}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F5F192BD-D0AF-41C3-BDF4-95FA594B776D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C02A205-E066-4CD4-9ED9-9BDAC2E16050}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F9F0B2A-FE88-4999-9068-C8301D0A6438}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FBA284CB-F048-4095-86D1-0658361C37A3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{71FB3CE9-CDCF-4EFF-AF5F-AF42934FF7A8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{30FC8F0E-63BD-4946-953E-62861AA3AB64}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AD325229-B4E5-4B3A-85C1-1F524F5CAA5E}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{DC5CDF85-41EF-4800-B43B-C225288ACB0F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32A7F0D5-92C3-4D64-8253-6ADDC94D5402}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{67390CCB-5FC3-4C0F-A1A6-39345FD5305A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{15F99E85-5984-4D28-9404-0296125D7104}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A94EF9F8-38E1-4695-B475-593B6E879549}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AFB19E6E-9C9F-421F-9455-1A93F4A75B49}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10374,7 +10374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71139834-87C3-42B3-80EC-4E4717646214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951DB3EE-89FF-4DFF-A10F-09C18F1EDC4C}">
   <dimension ref="B2:I104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11636,18 +11636,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{150555BF-0C85-4CF6-83F2-68F02FA11189}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F622D84D-B2F4-4102-8E88-4B644DC7BE37}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EA8C8A84-2B1D-46FF-95AF-F2DA7D255F23}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{85995AAD-DCAA-445A-8A2D-79DE5937C218}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{726F6BEC-719A-4E6E-B0FA-DADBB6049A71}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6CBCEB37-8DA3-41A9-8F1C-F604651A913B}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{B3A919ED-467A-4962-841A-7E8744E87DBB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44450F8E-748E-4D7F-BB71-D2C55FFF2A45}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B2981E5-642B-4E4D-90CE-163F4A948E32}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E95B2EA5-02B3-4EB4-9762-5DEBB9F7D38D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5346854F-27D8-4FB8-AF6B-4441F4012A95}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6902DEBA-AF60-4406-9951-6B33022E5338}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB4B1AD1-3751-4A90-B8DC-0543E6296F32}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{268FDA80-549B-4CFC-A022-D1196721C8E1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D8FB5824-3E9A-4EC4-BA53-F49BA7E87D10}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FC2895A2-DB13-49C0-BB02-A52E1AF0C9A4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{677B3003-40BF-436E-BBC0-EF924F1F0988}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8EC87892-EEC4-40C6-80F5-019CE281FD81}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{D9CC7B39-6247-4B14-BA7D-03B5DB18A6C6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9472FA47-A9A6-4CB1-8B80-07C58FC87C35}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B0EE20B-668D-40A3-BFCE-4563CFA99844}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BD698954-9213-4C03-A32C-23E1F8D360C9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18C99118-D50D-4C20-8B9D-64FD3E417F42}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{03E5F8DC-25FF-4EA9-A0B9-39F7F00BA66E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11660,7 +11660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D4D048-5C04-49DD-A8FC-120BC236B240}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641D4F7F-C187-47D1-AE06-C1DED606E853}">
   <dimension ref="B2:I103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12914,18 +12914,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1AF9DDD5-C88F-48DF-A384-C3DAD5AE1E85}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D7F3CED-3DD1-4703-A56E-8882CB081175}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E6F42059-6248-4D66-B13C-FF6526CBE4D6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{98284675-A026-4B23-BDAF-EFFDCE09BD3F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7C0D6864-6AAD-4494-B080-57536C5F9FD5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A7497937-8DD7-427D-BF29-5ED0F15D636B}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{48A3BF85-746A-41DF-9D68-6F7B3D94805E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E77E9CF-A6DC-41E7-9A33-E584B26D2D29}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E069A9AE-7EBE-4532-9717-39C8BD4ABC21}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{69EDCA90-4C92-43B6-A8D9-42E72E38B194}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1DC3FCB0-3F4E-4B74-800A-F99337B57BB9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8EEF3891-F1B1-41C4-BFB4-298076A37833}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3573B7B5-2225-4CD3-91D3-E79B41248A6E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED5A2B40-440E-4C4A-AE06-AE26F52EF4EA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{35D17C7B-06B7-4856-9DF9-B75DBFF6CA51}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EBAE837B-C874-45C5-BBCC-68D697E9F941}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7EE4EE95-3296-47F6-A39F-A050BB6C4F98}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0579916B-A1F7-4182-AFE2-EF226D0ABEF9}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{8FD8F296-55EB-4966-AB13-EF785D028DC2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2369A0E4-7336-41C8-B010-5EFDB44AF820}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C62E13F1-9A79-456A-A3DF-6E7B05F4E8BD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1EE3E60D-DFED-410C-B95F-0AC21FDA4FA4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{57C14AEB-5792-416A-8436-E6348F289803}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B1A9E94-E3F3-4EB1-A9AE-88692CEF1B9E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12938,7 +12938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B98336F-75CA-4B8B-83CC-B490C0F29A1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0EC9BA-6AEF-4DD4-8D13-FDD959D22FEB}">
   <dimension ref="B2:I103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14234,18 +14234,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4ED0B933-368A-4DA4-B629-5062C444403E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCCBB45A-6ABD-400B-8B29-1DB0AA70F2CD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A0F04907-11F9-4DA4-B085-D030163DDB51}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B784AB71-092C-47B9-8AEB-C760D17CB075}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AF6F13B3-0FDF-4F33-887C-A8F17B810D52}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F484406E-0E7B-4565-8816-DA1539C17D1E}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{67D30C24-EE5E-4421-B056-B4970975CF9B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CC40B95-6600-427F-AFF5-1950901A18FD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8F7663E2-9B6C-4EF2-B09F-66F1395D0104}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4FC7D5D1-0E8B-4A3D-B345-C3A414A4EB51}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{737A0200-765F-43D9-B701-77B1DF590956}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5DA8EA4E-58EB-4A1C-A550-2ADFEBCBCB0B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{825151AF-2DD2-43B2-BE68-491EA535FAB6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4DC6D7F-3636-4607-97A7-5C258DDD24F7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C1662E82-F180-43D5-A234-80170FA5903F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E43FDDF8-F25D-4823-850F-E7455C168217}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3691BA92-8AFF-4DD8-A981-2DA4F4AE3EC1}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2F8388C2-0805-4B2C-98B1-FBD2101268E8}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{EDEEB26F-FEB2-4389-930D-F5E35AFD186C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA535A11-DE55-42B3-9E2A-DA1A3DD8F9BF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{139C49AE-9C51-42DE-9384-E0F990933625}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8CFBF849-1080-445B-B20D-F540D8300083}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{988DC272-EFB3-40B2-AC46-094C392D9AFE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA5E64F2-81B1-44E2-8F0D-484234226ED6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14258,7 +14258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35EEEE5-B010-464E-9377-5B1FA1C8C4A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99A9FCA-087E-46FA-A4BD-F9DACC3D8BBC}">
   <dimension ref="B2:I103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15550,18 +15550,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E6152CCE-B3B7-4C71-B627-B77A30B53C51}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{35F40FAC-85E7-44AD-AA10-A558973CEA20}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A7AD8760-888F-4054-A16A-E7122512E85E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6264D0E8-6D4C-4F49-A81A-559995CDDD8A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{62A0DB69-EF04-4255-BC50-52C0A97D5FED}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4ED9619C-CC38-41E8-B9B4-BEC894B333E7}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{32704593-C9C5-4519-A252-54A853C04616}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B666733-4774-4D52-899B-FFAF16C2B129}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{869452B3-D8CD-4666-81E5-FE67F64A6DD1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F3665D59-C49A-420B-99F2-E3113BB19FA2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{235AEAF6-642E-4966-BAC1-FB87F6F87391}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{958DF840-3859-4614-B1C6-1B3168CF211C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A7400D5-91B8-44F6-A0FC-E0BD1882775E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{52C2D50D-2861-460C-B8C1-B392D9812A51}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F3415490-8DC9-4E0F-A699-60E310F703A1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6AB9E1F0-9724-40D5-8CB7-4AAC25FFAACC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E1DCD335-C0CB-4A9E-9B17-ABCDEECEB706}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3E538C2B-422D-4FF0-AC8C-3EF5F0C341FF}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{BCA7B48B-EDBC-4D6A-AFF3-07A9481C7894}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{429B9F71-351A-4E49-BB7C-782BBEE00DC9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B2A38357-EA59-47B1-BF12-EBF8EFC14540}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7FB62557-65EA-431D-9BAE-E09891E2AA73}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BAEAE94A-1C96-4B31-B5C8-E12BC685ADC4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{03BEA15A-4EBF-4217-BA1D-98E2B13BFAC6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15574,7 +15574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0CE175-6FA4-4E18-B439-355F5F15125C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CC810E-60EB-4350-9DF2-5BB519AABF90}">
   <dimension ref="B2:I103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16866,18 +16866,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1559DA34-5EC6-421C-B476-E51F8DEE5DE8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3AEE69B3-8BF9-457B-A978-25074471237D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{60C07E45-8147-4CBF-AAC8-FCA39A66133C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EE9E56B6-D57C-4DEB-B04C-1958A0853D5B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{420ED411-A40D-4F81-A6E8-6C8FCE411C66}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B3B66454-9401-4F90-84A2-65724E337343}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{1EE2870E-18AB-4BEF-8F76-6EE848EA29A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1BF5311-67E7-43FC-813A-5D3208AC5C4A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A5E06B32-9D4F-45BD-9ECA-90F41B4648B3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0E6C426D-A911-44AF-AC6C-B2E706C877D3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6BEB58B7-7C94-47B2-A18D-B1719D1659FE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FBBC23D2-E831-4FBE-B994-6B2CCAAADDF3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF91543C-6D23-477F-8937-4BB4F142618B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{552067BC-5125-4358-BAF7-9576CBAD2DD6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{505E99D2-984D-4E52-BB01-1759ACA9E551}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{094E5423-90CA-4C0F-A1FD-8905DF7BBA1A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{15FC8EAC-C655-4DE5-BBC1-4F7B2198DC78}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{81014E2C-AC0A-42F9-AA35-16DBEF18AC02}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{6C828AF5-9C2F-406E-A296-C1F1E7351CE7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0B44655-2B4B-4DAD-999C-382FD5661849}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{263564EA-4A1A-46B0-A307-D97BBF633326}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{11DD0F83-1DBE-4070-805A-3DF8B36CE772}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87E163CE-CE3A-4DF7-9D21-E1011F731D89}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C6CEC28-8C04-4C31-969C-D8D1A4430AA2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
